--- a/taxa_results.xlsx
+++ b/taxa_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cliftonbdemesquita/Documents/GitHub/EastCoast/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A43E2E-6FB1-EE4E-A4CE-56C11687B4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02DAD38-F22F-2245-9BAE-C50B44738112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35860" yWindow="460" windowWidth="23000" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10820" yWindow="460" windowWidth="35840" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
   <si>
     <t>WA</t>
   </si>
@@ -28,9 +28,6 @@
     <t>AL</t>
   </si>
   <si>
-    <t>DE</t>
-  </si>
-  <si>
     <t>SF</t>
   </si>
   <si>
@@ -134,6 +131,12 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>DEL</t>
   </si>
 </sst>
 </file>
@@ -390,123 +393,117 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -860,25 +857,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="2.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -886,489 +884,536 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.15">
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.15">
-      <c r="B3" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="21"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="36"/>
       <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="7"/>
       <c r="C5" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="8"/>
       <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="9"/>
       <c r="C7" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="10"/>
       <c r="C8" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="11"/>
       <c r="C9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="12"/>
       <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13"/>
       <c r="C11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="14"/>
       <c r="C12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="15"/>
       <c r="C13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="16"/>
       <c r="C14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="17"/>
       <c r="C15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="18"/>
       <c r="C16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
-    </row>
-    <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H17" s="19"/>
+    </row>
+    <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
-    </row>
-    <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H18" s="19"/>
+    </row>
+    <row r="19" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
-    </row>
-    <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H19" s="19"/>
+    </row>
+    <row r="20" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
-    </row>
-    <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H20" s="19"/>
+    </row>
+    <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
-    </row>
-    <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
-    </row>
-    <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H22" s="19"/>
+    </row>
+    <row r="23" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
-    </row>
-    <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H23" s="19"/>
+    </row>
+    <row r="24" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
-    </row>
-    <row r="25" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H24" s="19"/>
+    </row>
+    <row r="25" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
-    </row>
-    <row r="26" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="21" t="s">
+      <c r="H25" s="19"/>
+    </row>
+    <row r="26" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="38"/>
+      <c r="D26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="20"/>
+      <c r="C27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="23"/>
-      <c r="C27" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="25"/>
-      <c r="C28" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="21"/>
+      <c r="C28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="26"/>
-      <c r="C29" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="2"/>
+      <c r="H28" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="22"/>
+      <c r="C29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="27"/>
-      <c r="C30" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="23"/>
+      <c r="C30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="28"/>
-      <c r="C31" s="24" t="s">
-        <v>24</v>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="24"/>
+      <c r="C31" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="29"/>
-      <c r="C32" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="25"/>
+      <c r="C32" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="30"/>
-      <c r="C33" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="26"/>
+      <c r="C33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="31"/>
-      <c r="C34" s="24" t="s">
-        <v>27</v>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="27"/>
+      <c r="C34" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="32"/>
-      <c r="C35" s="24" t="s">
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="28"/>
+      <c r="C35" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="29"/>
+      <c r="C36" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="33"/>
-      <c r="C36" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="34"/>
-      <c r="C37" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="30"/>
+      <c r="C37" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="35"/>
-      <c r="C38" s="24" t="s">
-        <v>31</v>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="31"/>
+      <c r="C38" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="36"/>
-      <c r="C39" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="32"/>
+      <c r="C39" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="37"/>
-      <c r="C40" s="24" t="s">
-        <v>33</v>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="33"/>
+      <c r="C40" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="38"/>
-      <c r="C41" s="24" t="s">
-        <v>34</v>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="34"/>
+      <c r="C41" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="39"/>
-      <c r="C42" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D42" s="2"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="35"/>
+      <c r="C42" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="40"/>
-      <c r="C43" s="24" t="s">
-        <v>36</v>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="8"/>
+      <c r="C43" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
